--- a/mfa/I_orientalis/run_files/Clim__D_0_12/data_expmt1.xlsx
+++ b/mfa/I_orientalis/run_files/Clim__D_0_12/data_expmt1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSData" sheetId="1" state="visible" r:id="rId2"/>
@@ -877,8 +877,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1767,8 +1767,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="1" sqref="A2:H33 A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,7 +1806,7 @@
         <v>0.12</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1E-006</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,10 +1814,11 @@
         <v>203</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0433058684082554</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.00433058684082554</v>
+        <f aca="false">MIN(0.1*B4, 0.043305868408255 )</f>
+        <v>0.0138888888888889</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,8 +2191,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
